--- a/biology/Zoologie/Elaninae/Elaninae.xlsx
+++ b/biology/Zoologie/Elaninae/Elaninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élanions
 Les Elaninae sont une sous-famille d'oiseaux de la famille des Accipitridae reconnue par certains auteurs. Elle regroupe de petits rapaces aux ailes longues et prédateurs de rongeurs, appelés élanions (genres Elanus, Chelictinia et Gampsonyx). Certains auteurs y incluaient également l'Alcin des chauves-souris (Macheiramphus alcinus) et le Naucler à queue fourchue (Elanoides forficatus).
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Elaninae regroupent les espèces suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Elaninae regroupent les espèces suivantes :
 Elanus
 Elanus caeruleus – Élanion blac
 Elanus axillaris – Élanion d'Australie
